--- a/notebooks/labeling/naming_conversion.xlsx
+++ b/notebooks/labeling/naming_conversion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IRELAND\ChiA\Chia\notebooks\labeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F135C9AC-C541-4CAD-909B-6BE693DCC4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC096964-60C8-4B1C-B01A-1EB686C12430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-28920" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -6511,7 +6511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6884,15 +6884,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
